--- a/biology/Zoologie/Bondrée/Bondrée.xlsx
+++ b/biology/Zoologie/Bondrée/Bondrée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e</t>
+          <t>Bondrée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bondrée est un nom désignant plusieurs espèces de rapaces de la tribu des Pernini. En Europe francophone, elle désigne couramment la bondrée apivore (Pernis apivorus), seule espèce présente en Europe de l'Ouest. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e</t>
+          <t>Bondrée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De taille moyenne.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e</t>
+          <t>Bondrée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Régime</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit de guêpes, d'abeilles, et pille les ruches[réf. nécessaire]. 
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e</t>
+          <t>Bondrée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme « bondrée » dériverait du breton bondrask qui signifie « grive »[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « bondrée » dériverait du breton bondrask qui signifie « grive ».
 </t>
         </is>
       </c>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e</t>
+          <t>Bondrée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Classification scientifique du Congrès ornithologique international, noms normalisés de la CINFO :
 Bondrée à longue queue — Henicopernis longicauda (Garnot, 1828)  — Long-tailed Honey-buzzard
@@ -621,7 +641,7 @@
 Pernis steerei steerei W. L. Scalter, 1919
 Pernis steerei winkleri Gamauf &amp; Preleuthner, 1998
 Bondrée à plastron — Hamirostra melanosternon (Gould, 1841)
-Bondrée à queue carrée — Lophoictinia isura (Gould, 1838)[2].</t>
+Bondrée à queue carrée — Lophoictinia isura (Gould, 1838).</t>
         </is>
       </c>
     </row>
